--- a/asset/sample/Customer_Upload.xlsx
+++ b/asset/sample/Customer_Upload.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\php7\htdocs\irestora_plus\asset\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\novabox_restaurant_soft\asset\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D5AA4A-1041-4B53-9079-E7D82C431651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1764" yWindow="504" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -19,44 +20,26 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Customer Bulk Upload</t>
   </si>
   <si>
-    <t>Name *</t>
-  </si>
-  <si>
-    <t>Phone *</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>DOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB </t>
-  </si>
-  <si>
-    <t>Delivery Address</t>
-  </si>
-  <si>
-    <t>Nazmul Hasan Nero</t>
-  </si>
-  <si>
     <t>1987-03-23</t>
   </si>
   <si>
     <t>2017-05-19</t>
-  </si>
-  <si>
-    <t>ad.mdnazmul@gmail.com</t>
   </si>
   <si>
     <t>+96067789391633</t>
@@ -91,19 +74,49 @@
     </r>
   </si>
   <si>
-    <t>Default Discount (Flat/Percentage)</t>
-  </si>
-  <si>
-    <t>422/A, Park Avenue, Kanakati, Ukqqq</t>
-  </si>
-  <si>
-    <t>10%</t>
+    <t>DEUDA</t>
+  </si>
+  <si>
+    <t>Nombre *</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACIMIENTO </t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>Porcentaje de Descuento</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>info@novabox.app</t>
+  </si>
+  <si>
+    <t>80155414-4</t>
+  </si>
+  <si>
+    <t>Info Novabox</t>
+  </si>
+  <si>
+    <t>422, Av. 9 de Julio, Buenos Aires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +203,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,25 +481,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" customWidth="1"/>
     <col min="7" max="7" width="25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -496,9 +510,9 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -506,50 +520,62 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +584,7 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
